--- a/output/StructureDefinition-scp-plan.xlsx
+++ b/output/StructureDefinition-scp-plan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T15:11:50+02:00</t>
+    <t>2024-04-11T09:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Nederland (http://hl7.nl)</t>
   </si>
   <si>
     <t>Description</t>
@@ -249,10 +249,18 @@
     <t>*</t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>The definition of a plan for a series of actions, independent of any specific patient or context</t>
   </si>
   <si>
     <t>This resource allows for the definition of various types of plans as a sharable, consumable, and executable artifact. The resource is general enough to support the description of a broad range of clinical artifacts such as clinical decision support rules, order sets and protocols.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}pdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -299,17 +307,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>PlanDefinition.implicitRules</t>
   </si>
   <si>
@@ -329,9 +330,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PlanDefinition.language</t>
   </si>
   <si>
@@ -409,6 +407,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>PlanDefinition.extension</t>
   </si>
   <si>
@@ -427,16 +428,6 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -510,9 +501,6 @@
     <t>no-gen-base</t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
     <t>PlanDefinition.version</t>
   </si>
   <si>
@@ -550,8 +538,8 @@
     <t>Support human navigation and code generation.</t>
   </si>
   <si>
-    <t>ele-1
-inv-0</t>
+    <t xml:space="preserve">inv-0
+</t>
   </si>
   <si>
     <t>PlanDefinition.title</t>
@@ -576,9 +564,6 @@
   </si>
   <si>
     <t>An explanatory or alternate title for the plan definition giving additional information about its content.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>PlanDefinition.type</t>
@@ -594,9 +579,6 @@
     <t>A high-level category for the plan definition that distinguishes the kinds of systems that would be interested in the plan definition.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -604,9 +586,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/plan-definition-type</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>PlanDefinition.status</t>
@@ -851,9 +830,6 @@
     <t>A copyright statement relating to the plan definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the plan definition.</t>
   </si>
   <si>
-    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
-  </si>
-  <si>
     <t>Consumers must be able to determine any legal restrictions on the use of the plan definition and/or its content.</t>
   </si>
   <si>
@@ -916,14 +892,7 @@
     <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the plan definition are or are expected to be used instead.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>Definition.effectivePeriod</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
   </si>
   <si>
     <t>PlanDefinition.topic</t>
@@ -1024,9 +993,6 @@
     <t>A reference to a Library resource containing any formal logic used by the plan definition.</t>
   </si>
   <si>
-    <t>see [Canonical References](http://hl7.org/fhir/R4/references.html#canonical)</t>
-  </si>
-  <si>
     <t>PlanDefinition.goal</t>
   </si>
   <si>
@@ -1055,6 +1021,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>PlanDefinition.goal.extension</t>
   </si>
   <si>
@@ -1165,9 +1134,6 @@
     <t>Didactic or other informational resources associated with the goal that provide further supporting information about the goal. Information resources can include inline text commentary and links to web resources.</t>
   </si>
   <si>
-    <t>Each related artifact is either an attachment, or a reference to another knowledge resource, but not both.</t>
-  </si>
-  <si>
     <t>PlanDefinition.goal.target</t>
   </si>
   <si>
@@ -1227,22 +1193,6 @@
     <t>Indicates the timeframe after the start of the goal in which the goal should be met.</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>Appropriate units for Duration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/duration-units</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}drt-1:There SHALL be a code if there is a value and it SHALL be an expression of time.  If system is present, it SHALL be UCUM. {code.exists() implies ((system = %ucum) and value.exists())}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt; depending on the values</t>
-  </si>
-  <si>
     <t>PlanDefinition.action</t>
   </si>
   <si>
@@ -1355,9 +1305,6 @@
   </si>
   <si>
     <t>Identifies goals that this action supports. The reference must be to a goal element defined within this plan definition.</t>
-  </si>
-  <si>
-    <t>RFC 4122</t>
   </si>
   <si>
     <t>PlanDefinition.action.subject[x]</t>
@@ -1389,13 +1336,6 @@
     <t>A description of when the action should be triggered.</t>
   </si>
   <si>
-    <t>If an event is a named-event, it means the event is completely pre-coordinated, and no other information can be specified for the event. If the event is one of the data- events, the data and condition elements specify the triggering criteria. The data element specifies the structured component, and the condition element provides additional optional refinement of that structured component. If the event is periodic, the timing element defines when the event is triggered. For both data- and periodic events, a name can be provided as a shorthand for the formal semantics provided by the other elements.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-trd-3:A named event requires a name, a periodic event requires timing, and a data event requires data {(type = 'named-event' implies name.exists()) and (type = 'periodic' implies timing.exists()) and (type.startsWith('data-') implies data.exists())}trd-2:A condition only if there is a data requirement {condition.exists() implies data.exists()}trd-1:Either timing, or a data requirement, but not both {data.empty() or timing.empty()}</t>
-  </si>
-  <si>
     <t>PlanDefinition.action.condition</t>
   </si>
   <si>
@@ -1449,10 +1389,6 @@
   </si>
   <si>
     <t>The expression may be inlined or may be a reference to a named expression within a logic library referenced by the library element.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-exp-1:An expression or a reference must be provided {expression.exists() or reference.exists()}</t>
   </si>
   <si>
     <t>PlanDefinition.action.input</t>
@@ -1894,10 +1830,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2078,17 +2014,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2097,26 +2033,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.45703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.5625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.76171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.65625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="38.08984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="137.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.70703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="90.48828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2269,13 +2205,13 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2338,7 +2274,7 @@
         <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>47</v>
@@ -2350,15 +2286,15 @@
         <v>75</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2369,7 +2305,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -2378,19 +2314,19 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2440,13 +2376,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -2469,10 +2405,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2483,7 +2419,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -2492,16 +2428,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2552,19 +2488,19 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -2576,7 +2512,7 @@
         <v>75</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2595,16 +2531,16 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>98</v>
@@ -2672,13 +2608,13 @@
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -2690,15 +2626,15 @@
         <v>75</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2709,7 +2645,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -2721,16 +2657,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2756,43 +2692,43 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -2804,26 +2740,26 @@
         <v>75</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -2835,16 +2771,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2894,43 +2830,43 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2949,16 +2885,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3008,7 +2944,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3032,7 +2968,7 @@
         <v>75</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
@@ -3110,19 +3046,19 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3131,10 +3067,10 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
@@ -3146,15 +3082,15 @@
         <v>75</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3171,7 +3107,7 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
@@ -3180,16 +3116,16 @@
         <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -3226,19 +3162,19 @@
         <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3247,10 +3183,10 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -3262,15 +3198,15 @@
         <v>75</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3281,7 +3217,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -3290,22 +3226,22 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -3354,39 +3290,39 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3406,22 +3342,22 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -3470,7 +3406,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3479,30 +3415,30 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3513,7 +3449,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -3522,19 +3458,19 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3584,39 +3520,39 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3627,7 +3563,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -3636,22 +3572,22 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3700,19 +3636,19 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3724,15 +3660,15 @@
         <v>75</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3743,7 +3679,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3752,19 +3688,19 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3814,23 +3750,23 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3838,15 +3774,15 @@
         <v>75</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3857,7 +3793,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3869,17 +3805,15 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3928,19 +3862,19 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3952,15 +3886,15 @@
         <v>75</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3971,7 +3905,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3980,20 +3914,18 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -4018,13 +3950,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -4042,19 +3974,19 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -4066,15 +3998,15 @@
         <v>75</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4082,31 +4014,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4132,13 +4064,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -4156,39 +4088,39 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4199,7 +4131,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -4208,22 +4140,22 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -4272,39 +4204,39 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4315,7 +4247,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -4327,13 +4259,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4341,7 +4273,7 @@
         <v>75</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>75</v>
@@ -4362,13 +4294,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -4386,23 +4318,23 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
       </c>
@@ -4410,26 +4342,26 @@
         <v>75</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -4438,19 +4370,19 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4500,39 +4432,39 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4543,7 +4475,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4552,22 +4484,22 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4616,39 +4548,39 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4668,19 +4600,19 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4730,7 +4662,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4739,13 +4671,13 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4754,15 +4686,15 @@
         <v>75</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4773,7 +4705,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4782,19 +4714,19 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4844,22 +4776,22 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4868,15 +4800,15 @@
         <v>75</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4896,22 +4828,22 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4960,7 +4892,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4969,13 +4901,13 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4984,15 +4916,15 @@
         <v>75</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5012,19 +4944,19 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5050,13 +4982,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -5074,7 +5006,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5083,13 +5015,13 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -5098,15 +5030,15 @@
         <v>75</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5117,7 +5049,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -5129,16 +5061,16 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5188,39 +5120,39 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5231,7 +5163,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -5243,17 +5175,15 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -5302,19 +5232,19 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
@@ -5326,26 +5256,26 @@
         <v>75</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -5357,19 +5287,17 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -5418,39 +5346,39 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5461,7 +5389,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -5473,16 +5401,16 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5532,39 +5460,39 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5575,7 +5503,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5587,19 +5515,19 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5648,39 +5576,39 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5691,7 +5619,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5700,22 +5628,22 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5764,39 +5692,39 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5819,19 +5747,17 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5856,13 +5782,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5880,7 +5806,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5889,13 +5815,13 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5904,15 +5830,15 @@
         <v>75</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5935,13 +5861,13 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5992,7 +5918,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6001,10 +5927,10 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
@@ -6016,15 +5942,15 @@
         <v>75</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6047,13 +5973,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6104,7 +6030,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6113,10 +6039,10 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
@@ -6128,15 +6054,15 @@
         <v>75</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6159,13 +6085,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6216,7 +6142,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6225,10 +6151,10 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -6240,15 +6166,15 @@
         <v>75</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6271,13 +6197,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6328,7 +6254,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6337,10 +6263,10 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -6352,15 +6278,15 @@
         <v>75</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6383,19 +6309,19 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6444,7 +6370,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6453,10 +6379,10 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -6468,15 +6394,15 @@
         <v>75</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6499,17 +6425,15 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6558,7 +6482,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6567,10 +6491,10 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -6582,15 +6506,15 @@
         <v>75</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6613,17 +6537,17 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6672,7 +6596,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6681,10 +6605,10 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6696,15 +6620,15 @@
         <v>75</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6715,7 +6639,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6727,13 +6651,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6784,13 +6708,13 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
@@ -6808,15 +6732,15 @@
         <v>75</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6845,7 +6769,7 @@
         <v>131</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>133</v>
@@ -6886,19 +6810,19 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6907,10 +6831,10 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6922,19 +6846,19 @@
         <v>75</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>96</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6947,25 +6871,25 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -7014,7 +6938,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7023,10 +6947,10 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -7038,15 +6962,15 @@
         <v>75</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7057,7 +6981,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -7069,17 +6993,15 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -7104,13 +7026,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -7128,19 +7050,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -7152,15 +7074,15 @@
         <v>75</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7168,10 +7090,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -7183,16 +7105,16 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7218,13 +7140,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -7242,19 +7164,19 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -7266,15 +7188,15 @@
         <v>75</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7285,7 +7207,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -7297,17 +7219,15 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -7332,13 +7252,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7356,19 +7276,19 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
@@ -7380,15 +7300,15 @@
         <v>75</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7399,7 +7319,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -7411,17 +7331,15 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -7446,13 +7364,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -7470,19 +7388,19 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
@@ -7494,15 +7412,15 @@
         <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7525,17 +7443,15 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -7560,11 +7476,11 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -7582,7 +7498,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7591,10 +7507,10 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
@@ -7606,15 +7522,15 @@
         <v>75</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7637,17 +7553,15 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -7696,7 +7610,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7705,10 +7619,10 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
@@ -7720,15 +7634,15 @@
         <v>75</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7751,13 +7665,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7808,7 +7722,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7817,10 +7731,10 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -7832,15 +7746,15 @@
         <v>75</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7851,7 +7765,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -7863,13 +7777,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7920,13 +7834,13 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
@@ -7944,15 +7858,15 @@
         <v>75</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7981,7 +7895,7 @@
         <v>131</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>133</v>
@@ -8022,19 +7936,19 @@
         <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8043,10 +7957,10 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -8058,19 +7972,19 @@
         <v>75</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>96</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8083,25 +7997,25 @@
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -8150,7 +8064,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8159,10 +8073,10 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -8174,15 +8088,15 @@
         <v>75</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8193,7 +8107,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -8205,17 +8119,15 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -8240,13 +8152,13 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
@@ -8264,19 +8176,19 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
@@ -8288,15 +8200,15 @@
         <v>75</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8307,7 +8219,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -8319,13 +8231,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8376,19 +8288,19 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
@@ -8400,15 +8312,15 @@
         <v>75</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8419,7 +8331,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -8431,17 +8343,15 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
@@ -8466,13 +8376,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>392</v>
+        <v>75</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>393</v>
+        <v>75</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -8490,19 +8400,19 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>394</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
@@ -8514,15 +8424,15 @@
         <v>75</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>395</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8545,16 +8455,16 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8604,7 +8514,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8613,13 +8523,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -8628,15 +8538,15 @@
         <v>75</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8647,7 +8557,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -8659,13 +8569,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8716,13 +8626,13 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
@@ -8740,15 +8650,15 @@
         <v>75</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8777,7 +8687,7 @@
         <v>131</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>133</v>
@@ -8818,19 +8728,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8839,10 +8749,10 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
@@ -8854,19 +8764,19 @@
         <v>75</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>96</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8879,25 +8789,25 @@
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8946,7 +8856,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8955,10 +8865,10 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
@@ -8970,15 +8880,15 @@
         <v>75</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8989,7 +8899,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -9001,17 +8911,15 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -9060,19 +8968,19 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
@@ -9084,15 +8992,15 @@
         <v>75</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9103,7 +9011,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -9115,17 +9023,15 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -9174,22 +9080,22 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -9198,15 +9104,15 @@
         <v>75</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9217,7 +9123,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -9229,17 +9135,15 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -9288,22 +9192,22 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -9312,15 +9216,15 @@
         <v>75</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9331,7 +9235,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -9343,17 +9247,15 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -9402,22 +9304,22 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -9426,15 +9328,15 @@
         <v>75</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9445,7 +9347,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
@@ -9457,17 +9359,15 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9492,13 +9392,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -9516,19 +9416,19 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
@@ -9540,15 +9440,15 @@
         <v>75</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9571,17 +9471,15 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -9630,7 +9528,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9639,10 +9537,10 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
@@ -9654,15 +9552,15 @@
         <v>75</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9685,16 +9583,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9744,7 +9642,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9753,10 +9651,10 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
@@ -9768,15 +9666,15 @@
         <v>75</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9799,17 +9697,15 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>75</v>
@@ -9858,7 +9754,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9867,10 +9763,10 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
@@ -9882,15 +9778,15 @@
         <v>75</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9913,17 +9809,15 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>75</v>
@@ -9972,7 +9866,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9981,10 +9875,10 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
@@ -9996,15 +9890,15 @@
         <v>75</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10015,7 +9909,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -10027,25 +9921,25 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q70" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>75</v>
@@ -10066,13 +9960,13 @@
         <v>75</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>75</v>
@@ -10090,22 +9984,22 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
@@ -10114,15 +10008,15 @@
         <v>75</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10145,17 +10039,15 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -10204,7 +10096,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10213,10 +10105,10 @@
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>445</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
@@ -10228,15 +10120,15 @@
         <v>75</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10259,16 +10151,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10318,7 +10210,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10327,10 +10219,10 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
@@ -10342,15 +10234,15 @@
         <v>75</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10361,7 +10253,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -10373,13 +10265,13 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10430,13 +10322,13 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
@@ -10454,15 +10346,15 @@
         <v>75</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10491,7 +10383,7 @@
         <v>131</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>133</v>
@@ -10532,19 +10424,19 @@
         <v>75</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10553,10 +10445,10 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
@@ -10568,19 +10460,19 @@
         <v>75</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>96</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10593,25 +10485,25 @@
         <v>75</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10660,7 +10552,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10669,10 +10561,10 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
@@ -10684,15 +10576,15 @@
         <v>75</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10700,10 +10592,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -10715,16 +10607,16 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10750,13 +10642,13 @@
         <v>75</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>75</v>
@@ -10774,19 +10666,19 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
@@ -10798,15 +10690,15 @@
         <v>75</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10817,7 +10709,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
@@ -10829,16 +10721,16 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10888,19 +10780,19 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>464</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
@@ -10912,15 +10804,15 @@
         <v>75</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10943,13 +10835,13 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11000,7 +10892,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11009,10 +10901,10 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
@@ -11024,15 +10916,15 @@
         <v>75</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11055,13 +10947,13 @@
         <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11112,7 +11004,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11121,10 +11013,10 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
@@ -11136,15 +11028,15 @@
         <v>75</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11167,16 +11059,16 @@
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11226,7 +11118,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11235,10 +11127,10 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
@@ -11250,15 +11142,15 @@
         <v>75</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11269,7 +11161,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -11281,13 +11173,13 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11338,13 +11230,13 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>75</v>
@@ -11362,15 +11254,15 @@
         <v>75</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11399,7 +11291,7 @@
         <v>131</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>133</v>
@@ -11440,19 +11332,19 @@
         <v>75</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11461,10 +11353,10 @@
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>75</v>
@@ -11476,19 +11368,19 @@
         <v>75</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>96</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11501,25 +11393,25 @@
         <v>75</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>75</v>
@@ -11568,7 +11460,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11577,10 +11469,10 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>75</v>
@@ -11592,15 +11484,15 @@
         <v>75</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11608,10 +11500,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>75</v>
@@ -11623,17 +11515,15 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>75</v>
@@ -11682,19 +11572,19 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
@@ -11706,15 +11596,15 @@
         <v>75</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11722,10 +11612,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>75</v>
@@ -11737,17 +11627,15 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -11772,13 +11660,13 @@
         <v>75</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>75</v>
@@ -11796,19 +11684,19 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
@@ -11820,15 +11708,15 @@
         <v>75</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11839,7 +11727,7 @@
         <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>75</v>
@@ -11851,13 +11739,13 @@
         <v>75</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11908,19 +11796,19 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>75</v>
@@ -11932,15 +11820,15 @@
         <v>75</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11951,7 +11839,7 @@
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -11963,13 +11851,13 @@
         <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12020,19 +11908,19 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>75</v>
@@ -12044,15 +11932,15 @@
         <v>75</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12075,13 +11963,13 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12132,7 +12020,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12141,10 +12029,10 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>75</v>
@@ -12156,15 +12044,15 @@
         <v>75</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12175,7 +12063,7 @@
         <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>75</v>
@@ -12187,13 +12075,13 @@
         <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12244,13 +12132,13 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>75</v>
@@ -12268,15 +12156,15 @@
         <v>75</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12305,7 +12193,7 @@
         <v>131</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>133</v>
@@ -12346,19 +12234,19 @@
         <v>75</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12367,10 +12255,10 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>75</v>
@@ -12382,19 +12270,19 @@
         <v>75</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>96</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12407,25 +12295,25 @@
         <v>75</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>75</v>
@@ -12474,7 +12362,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -12483,10 +12371,10 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>75</v>
@@ -12498,15 +12386,15 @@
         <v>75</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12514,10 +12402,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>75</v>
@@ -12529,17 +12417,15 @@
         <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>75</v>
@@ -12564,13 +12450,13 @@
         <v>75</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>75</v>
@@ -12588,19 +12474,19 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
@@ -12612,15 +12498,15 @@
         <v>75</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12631,7 +12517,7 @@
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>75</v>
@@ -12643,17 +12529,15 @@
         <v>75</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>75</v>
@@ -12678,13 +12562,13 @@
         <v>75</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>75</v>
@@ -12702,19 +12586,19 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>75</v>
@@ -12726,15 +12610,15 @@
         <v>75</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12745,7 +12629,7 @@
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
@@ -12757,17 +12641,15 @@
         <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>75</v>
@@ -12792,13 +12674,13 @@
         <v>75</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>75</v>
@@ -12816,19 +12698,19 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>75</v>
@@ -12840,15 +12722,15 @@
         <v>75</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12859,7 +12741,7 @@
         <v>76</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>75</v>
@@ -12871,17 +12753,15 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>75</v>
@@ -12906,13 +12786,13 @@
         <v>75</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>75</v>
@@ -12930,19 +12810,19 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>75</v>
@@ -12954,15 +12834,15 @@
         <v>75</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12973,7 +12853,7 @@
         <v>76</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>75</v>
@@ -12985,17 +12865,15 @@
         <v>75</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>75</v>
@@ -13020,13 +12898,13 @@
         <v>75</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>75</v>
@@ -13044,19 +12922,19 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>75</v>
@@ -13068,15 +12946,15 @@
         <v>75</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13087,7 +12965,7 @@
         <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>75</v>
@@ -13099,17 +12977,15 @@
         <v>75</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>75</v>
@@ -13134,13 +13010,13 @@
         <v>75</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>75</v>
@@ -13158,19 +13034,19 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>75</v>
@@ -13182,15 +13058,15 @@
         <v>75</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13201,7 +13077,7 @@
         <v>76</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>75</v>
@@ -13213,17 +13089,15 @@
         <v>75</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>75</v>
@@ -13248,13 +13122,13 @@
         <v>75</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>75</v>
@@ -13272,19 +13146,19 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>75</v>
@@ -13296,15 +13170,15 @@
         <v>75</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13315,7 +13189,7 @@
         <v>76</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>75</v>
@@ -13327,17 +13201,15 @@
         <v>75</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>75</v>
@@ -13362,13 +13234,13 @@
         <v>75</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>75</v>
@@ -13386,19 +13258,19 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>75</v>
@@ -13410,15 +13282,15 @@
         <v>75</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13429,7 +13301,7 @@
         <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>75</v>
@@ -13441,16 +13313,16 @@
         <v>75</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13500,22 +13372,22 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>75</v>
@@ -13524,15 +13396,15 @@
         <v>75</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13543,7 +13415,7 @@
         <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
@@ -13555,16 +13427,16 @@
         <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13614,19 +13486,19 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>75</v>
@@ -13638,15 +13510,15 @@
         <v>75</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13669,16 +13541,16 @@
         <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13728,7 +13600,7 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -13737,10 +13609,10 @@
         <v>77</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>75</v>
@@ -13752,15 +13624,15 @@
         <v>75</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13771,7 +13643,7 @@
         <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>75</v>
@@ -13783,13 +13655,13 @@
         <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13840,13 +13712,13 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>75</v>
@@ -13864,15 +13736,15 @@
         <v>75</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13901,7 +13773,7 @@
         <v>131</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N104" t="s" s="2">
         <v>133</v>
@@ -13942,19 +13814,19 @@
         <v>75</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -13963,10 +13835,10 @@
         <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>75</v>
@@ -13978,19 +13850,19 @@
         <v>75</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>96</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14003,25 +13875,25 @@
         <v>75</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>75</v>
@@ -14070,7 +13942,7 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -14079,10 +13951,10 @@
         <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>75</v>
@@ -14094,15 +13966,15 @@
         <v>75</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14113,7 +13985,7 @@
         <v>76</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>75</v>
@@ -14125,16 +13997,16 @@
         <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14184,19 +14056,19 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>75</v>
@@ -14208,15 +14080,15 @@
         <v>75</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14227,7 +14099,7 @@
         <v>76</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>75</v>
@@ -14239,16 +14111,16 @@
         <v>75</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14298,19 +14170,19 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>464</v>
+        <v>96</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>75</v>
@@ -14322,15 +14194,15 @@
         <v>75</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14353,13 +14225,13 @@
         <v>75</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14410,7 +14282,7 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -14422,10 +14294,10 @@
         <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>75</v>

--- a/output/StructureDefinition-scp-plan.xlsx
+++ b/output/StructureDefinition-scp-plan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:03:26+00:00</t>
+    <t>2024-04-11T13:49:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Nederland (http://hl7.nl)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -249,18 +249,10 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>The definition of a plan for a series of actions, independent of any specific patient or context</t>
   </si>
   <si>
     <t>This resource allows for the definition of various types of plans as a sharable, consumable, and executable artifact. The resource is general enough to support the description of a broad range of clinical artifacts such as clinical decision support rules, order sets and protocols.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}pdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -307,10 +299,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>PlanDefinition.implicitRules</t>
   </si>
   <si>
@@ -330,6 +329,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>PlanDefinition.language</t>
   </si>
   <si>
@@ -407,9 +409,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>PlanDefinition.extension</t>
   </si>
   <si>
@@ -428,6 +427,16 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -501,6 +510,9 @@
     <t>no-gen-base</t>
   </si>
   <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
     <t>PlanDefinition.version</t>
   </si>
   <si>
@@ -538,8 +550,8 @@
     <t>Support human navigation and code generation.</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-0
-</t>
+    <t>ele-1
+inv-0</t>
   </si>
   <si>
     <t>PlanDefinition.title</t>
@@ -564,6 +576,9 @@
   </si>
   <si>
     <t>An explanatory or alternate title for the plan definition giving additional information about its content.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>PlanDefinition.type</t>
@@ -579,6 +594,9 @@
     <t>A high-level category for the plan definition that distinguishes the kinds of systems that would be interested in the plan definition.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -586,6 +604,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/plan-definition-type</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
   <si>
     <t>PlanDefinition.status</t>
@@ -830,6 +851,9 @@
     <t>A copyright statement relating to the plan definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the plan definition.</t>
   </si>
   <si>
+    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
+  </si>
+  <si>
     <t>Consumers must be able to determine any legal restrictions on the use of the plan definition and/or its content.</t>
   </si>
   <si>
@@ -892,7 +916,14 @@
     <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the plan definition are or are expected to be used instead.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>Definition.effectivePeriod</t>
+  </si>
+  <si>
+    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
   </si>
   <si>
     <t>PlanDefinition.topic</t>
@@ -993,6 +1024,9 @@
     <t>A reference to a Library resource containing any formal logic used by the plan definition.</t>
   </si>
   <si>
+    <t>see [Canonical References](http://hl7.org/fhir/R4/references.html#canonical)</t>
+  </si>
+  <si>
     <t>PlanDefinition.goal</t>
   </si>
   <si>
@@ -1021,9 +1055,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PlanDefinition.goal.extension</t>
   </si>
   <si>
@@ -1134,6 +1165,9 @@
     <t>Didactic or other informational resources associated with the goal that provide further supporting information about the goal. Information resources can include inline text commentary and links to web resources.</t>
   </si>
   <si>
+    <t>Each related artifact is either an attachment, or a reference to another knowledge resource, but not both.</t>
+  </si>
+  <si>
     <t>PlanDefinition.goal.target</t>
   </si>
   <si>
@@ -1193,6 +1227,22 @@
     <t>Indicates the timeframe after the start of the goal in which the goal should be met.</t>
   </si>
   <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>Appropriate units for Duration.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/duration-units</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}drt-1:There SHALL be a code if there is a value and it SHALL be an expression of time.  If system is present, it SHALL be UCUM. {code.exists() implies ((system = %ucum) and value.exists())}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt; depending on the values</t>
+  </si>
+  <si>
     <t>PlanDefinition.action</t>
   </si>
   <si>
@@ -1305,6 +1355,9 @@
   </si>
   <si>
     <t>Identifies goals that this action supports. The reference must be to a goal element defined within this plan definition.</t>
+  </si>
+  <si>
+    <t>RFC 4122</t>
   </si>
   <si>
     <t>PlanDefinition.action.subject[x]</t>
@@ -1336,6 +1389,13 @@
     <t>A description of when the action should be triggered.</t>
   </si>
   <si>
+    <t>If an event is a named-event, it means the event is completely pre-coordinated, and no other information can be specified for the event. If the event is one of the data- events, the data and condition elements specify the triggering criteria. The data element specifies the structured component, and the condition element provides additional optional refinement of that structured component. If the event is periodic, the timing element defines when the event is triggered. For both data- and periodic events, a name can be provided as a shorthand for the formal semantics provided by the other elements.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+trd-3:A named event requires a name, a periodic event requires timing, and a data event requires data {(type = 'named-event' implies name.exists()) and (type = 'periodic' implies timing.exists()) and (type.startsWith('data-') implies data.exists())}trd-2:A condition only if there is a data requirement {condition.exists() implies data.exists()}trd-1:Either timing, or a data requirement, but not both {data.empty() or timing.empty()}</t>
+  </si>
+  <si>
     <t>PlanDefinition.action.condition</t>
   </si>
   <si>
@@ -1389,6 +1449,10 @@
   </si>
   <si>
     <t>The expression may be inlined or may be a reference to a named expression within a logic library referenced by the library element.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+exp-1:An expression or a reference must be provided {expression.exists() or reference.exists()}</t>
   </si>
   <si>
     <t>PlanDefinition.action.input</t>
@@ -1830,10 +1894,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2014,17 +2078,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2033,26 +2097,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.45703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.5625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="43.76171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="39.70703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="90.48828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="38.08984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="137.703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2205,13 +2269,13 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2274,7 +2338,7 @@
         <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>47</v>
@@ -2286,15 +2350,15 @@
         <v>75</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2305,28 +2369,28 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2376,13 +2440,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -2405,10 +2469,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2419,7 +2483,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -2428,16 +2492,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2488,31 +2552,31 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
+      <c r="AK4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN4" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2531,16 +2595,16 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>98</v>
@@ -2608,13 +2672,13 @@
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -2626,15 +2690,15 @@
         <v>75</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2645,7 +2709,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -2657,16 +2721,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2692,13 +2756,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -2716,19 +2780,19 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -2740,26 +2804,26 @@
         <v>75</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -2771,16 +2835,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2830,19 +2894,19 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -2854,19 +2918,19 @@
         <v>75</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2885,16 +2949,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2944,7 +3008,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2968,7 +3032,7 @@
         <v>75</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -3046,19 +3110,19 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3067,10 +3131,10 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
@@ -3082,15 +3146,15 @@
         <v>75</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3107,7 +3171,7 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
@@ -3116,16 +3180,16 @@
         <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -3162,19 +3226,19 @@
         <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3183,10 +3247,10 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -3198,15 +3262,15 @@
         <v>75</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3217,7 +3281,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -3226,22 +3290,22 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -3290,39 +3354,39 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3342,22 +3406,22 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -3406,7 +3470,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3415,30 +3479,30 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>75</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3449,7 +3513,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -3458,19 +3522,19 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3520,39 +3584,39 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3563,7 +3627,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -3572,22 +3636,22 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3636,19 +3700,19 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3660,15 +3724,15 @@
         <v>75</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3679,7 +3743,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3688,19 +3752,19 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3750,22 +3814,22 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3774,15 +3838,15 @@
         <v>75</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3793,7 +3857,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3805,15 +3869,17 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3862,19 +3928,19 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3886,15 +3952,15 @@
         <v>75</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3905,7 +3971,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3914,18 +3980,20 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3950,43 +4018,43 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -3998,15 +4066,15 @@
         <v>75</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4014,31 +4082,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4064,13 +4132,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -4088,39 +4156,39 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4131,7 +4199,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -4140,22 +4208,22 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="O19" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -4204,39 +4272,39 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4247,7 +4315,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -4259,13 +4327,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4273,7 +4341,7 @@
         <v>75</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>75</v>
@@ -4294,13 +4362,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -4318,22 +4386,22 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -4342,26 +4410,26 @@
         <v>75</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -4370,19 +4438,19 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4432,39 +4500,39 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4475,7 +4543,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4484,22 +4552,22 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4548,39 +4616,39 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4600,19 +4668,19 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4662,7 +4730,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4671,13 +4739,13 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4686,15 +4754,15 @@
         <v>75</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4705,7 +4773,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4714,19 +4782,19 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4776,22 +4844,22 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4800,15 +4868,15 @@
         <v>75</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4828,22 +4896,22 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4892,7 +4960,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4901,13 +4969,13 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4916,15 +4984,15 @@
         <v>75</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4944,19 +5012,19 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4982,13 +5050,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -5006,7 +5074,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5015,13 +5083,13 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -5030,15 +5098,15 @@
         <v>75</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5049,7 +5117,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -5061,16 +5129,16 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5120,39 +5188,39 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5163,7 +5231,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -5175,15 +5243,17 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -5232,19 +5302,19 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
@@ -5256,26 +5326,26 @@
         <v>75</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -5287,17 +5357,19 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -5346,39 +5418,39 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5389,7 +5461,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -5401,16 +5473,16 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5460,39 +5532,39 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5503,7 +5575,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5515,19 +5587,19 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5576,39 +5648,39 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5619,7 +5691,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5628,22 +5700,22 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5692,39 +5764,39 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>75</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5747,17 +5819,19 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5782,13 +5856,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5806,7 +5880,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5815,13 +5889,13 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5830,15 +5904,15 @@
         <v>75</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5861,13 +5935,13 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5918,7 +5992,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5927,10 +6001,10 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
@@ -5942,15 +6016,15 @@
         <v>75</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5973,13 +6047,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6030,7 +6104,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6039,10 +6113,10 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
@@ -6054,15 +6128,15 @@
         <v>75</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6085,13 +6159,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6142,7 +6216,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6151,10 +6225,10 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -6166,15 +6240,15 @@
         <v>75</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6197,13 +6271,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6254,7 +6328,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6263,10 +6337,10 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -6278,15 +6352,15 @@
         <v>75</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6309,19 +6383,19 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6370,7 +6444,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6379,10 +6453,10 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -6394,15 +6468,15 @@
         <v>75</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6425,15 +6499,17 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6482,7 +6558,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6491,10 +6567,10 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -6506,15 +6582,15 @@
         <v>75</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6537,17 +6613,17 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6596,7 +6672,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6605,10 +6681,10 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6620,15 +6696,15 @@
         <v>75</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6639,7 +6715,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6651,13 +6727,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6708,13 +6784,13 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
@@ -6732,15 +6808,15 @@
         <v>75</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>324</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6769,7 +6845,7 @@
         <v>131</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>133</v>
@@ -6810,19 +6886,19 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6831,10 +6907,10 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6846,19 +6922,19 @@
         <v>75</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>324</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6871,25 +6947,25 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6938,7 +7014,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6947,10 +7023,10 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -6962,15 +7038,15 @@
         <v>75</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6981,7 +7057,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6993,15 +7069,17 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -7026,13 +7104,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -7050,19 +7128,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -7074,15 +7152,15 @@
         <v>75</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7090,10 +7168,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -7105,16 +7183,16 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7140,13 +7218,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -7164,19 +7242,19 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -7188,15 +7266,15 @@
         <v>75</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7207,7 +7285,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -7219,15 +7297,17 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -7252,13 +7332,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7276,19 +7356,19 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
@@ -7300,15 +7380,15 @@
         <v>75</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7319,7 +7399,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -7331,15 +7411,17 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -7364,13 +7446,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -7388,19 +7470,19 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
@@ -7412,15 +7494,15 @@
         <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7443,15 +7525,17 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -7476,11 +7560,11 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -7498,7 +7582,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7507,10 +7591,10 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
@@ -7522,15 +7606,15 @@
         <v>75</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7553,15 +7637,17 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -7610,7 +7696,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7619,10 +7705,10 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
@@ -7634,15 +7720,15 @@
         <v>75</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7665,13 +7751,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7722,7 +7808,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7731,10 +7817,10 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -7746,15 +7832,15 @@
         <v>75</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7765,7 +7851,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -7777,13 +7863,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7834,13 +7920,13 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
@@ -7858,15 +7944,15 @@
         <v>75</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>324</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7895,7 +7981,7 @@
         <v>131</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>133</v>
@@ -7936,19 +8022,19 @@
         <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7957,10 +8043,10 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7972,19 +8058,19 @@
         <v>75</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>324</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7997,25 +8083,25 @@
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -8064,7 +8150,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8073,10 +8159,10 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -8088,15 +8174,15 @@
         <v>75</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8107,7 +8193,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -8119,15 +8205,17 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -8152,13 +8240,13 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
@@ -8176,19 +8264,19 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
@@ -8200,15 +8288,15 @@
         <v>75</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8219,7 +8307,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -8231,13 +8319,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8288,19 +8376,19 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
@@ -8312,15 +8400,15 @@
         <v>75</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8331,7 +8419,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -8343,15 +8431,17 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
@@ -8376,13 +8466,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>75</v>
+        <v>393</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -8400,19 +8490,19 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
@@ -8424,15 +8514,15 @@
         <v>75</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>75</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8455,16 +8545,16 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8514,7 +8604,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8523,13 +8613,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -8538,15 +8628,15 @@
         <v>75</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8557,7 +8647,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -8569,13 +8659,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8626,13 +8716,13 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
@@ -8650,15 +8740,15 @@
         <v>75</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>324</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8687,7 +8777,7 @@
         <v>131</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>133</v>
@@ -8728,19 +8818,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8749,10 +8839,10 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
@@ -8764,19 +8854,19 @@
         <v>75</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>324</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8789,25 +8879,25 @@
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8856,7 +8946,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8865,10 +8955,10 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
@@ -8880,15 +8970,15 @@
         <v>75</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8899,7 +8989,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8911,15 +9001,17 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8968,19 +9060,19 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
@@ -8992,15 +9084,15 @@
         <v>75</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9011,7 +9103,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -9023,15 +9115,17 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -9080,22 +9174,22 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -9104,15 +9198,15 @@
         <v>75</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9123,7 +9217,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -9135,15 +9229,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -9192,22 +9288,22 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -9216,15 +9312,15 @@
         <v>75</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9235,7 +9331,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -9247,15 +9343,17 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -9304,22 +9402,22 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -9328,15 +9426,15 @@
         <v>75</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9347,7 +9445,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
@@ -9359,15 +9457,17 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -9392,13 +9492,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -9416,19 +9516,19 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
@@ -9440,15 +9540,15 @@
         <v>75</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9471,15 +9571,17 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -9528,7 +9630,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9537,10 +9639,10 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
@@ -9552,15 +9654,15 @@
         <v>75</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9583,16 +9685,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9642,7 +9744,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9651,10 +9753,10 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
@@ -9666,15 +9768,15 @@
         <v>75</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9697,15 +9799,17 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>75</v>
@@ -9754,7 +9858,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9763,10 +9867,10 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
@@ -9778,15 +9882,15 @@
         <v>75</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9809,15 +9913,17 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>75</v>
@@ -9866,7 +9972,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9875,10 +9981,10 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
@@ -9890,15 +9996,15 @@
         <v>75</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9909,7 +10015,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -9921,25 +10027,25 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q70" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>75</v>
@@ -9960,13 +10066,13 @@
         <v>75</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>75</v>
@@ -9984,22 +10090,22 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
@@ -10008,15 +10114,15 @@
         <v>75</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10039,15 +10145,17 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -10096,7 +10204,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10105,10 +10213,10 @@
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>445</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
@@ -10120,15 +10228,15 @@
         <v>75</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10151,16 +10259,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10210,7 +10318,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10219,10 +10327,10 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
@@ -10234,15 +10342,15 @@
         <v>75</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10253,7 +10361,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -10265,13 +10373,13 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10322,13 +10430,13 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
@@ -10346,15 +10454,15 @@
         <v>75</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>324</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10383,7 +10491,7 @@
         <v>131</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>133</v>
@@ -10424,19 +10532,19 @@
         <v>75</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10445,10 +10553,10 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
@@ -10460,19 +10568,19 @@
         <v>75</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>324</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10485,25 +10593,25 @@
         <v>75</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10552,7 +10660,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10561,10 +10669,10 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
@@ -10576,15 +10684,15 @@
         <v>75</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10592,10 +10700,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -10607,16 +10715,16 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10642,13 +10750,13 @@
         <v>75</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>75</v>
@@ -10666,19 +10774,19 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
@@ -10690,15 +10798,15 @@
         <v>75</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10709,7 +10817,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
@@ -10721,16 +10829,16 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10780,19 +10888,19 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>464</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
@@ -10804,15 +10912,15 @@
         <v>75</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10835,13 +10943,13 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10892,7 +11000,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10901,10 +11009,10 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
@@ -10916,15 +11024,15 @@
         <v>75</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10947,13 +11055,13 @@
         <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11004,7 +11112,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11013,10 +11121,10 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
@@ -11028,15 +11136,15 @@
         <v>75</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11059,16 +11167,16 @@
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11118,7 +11226,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11127,10 +11235,10 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
@@ -11142,15 +11250,15 @@
         <v>75</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11161,7 +11269,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -11173,13 +11281,13 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11230,13 +11338,13 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>75</v>
@@ -11254,15 +11362,15 @@
         <v>75</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>324</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11291,7 +11399,7 @@
         <v>131</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>133</v>
@@ -11332,19 +11440,19 @@
         <v>75</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11353,10 +11461,10 @@
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>75</v>
@@ -11368,19 +11476,19 @@
         <v>75</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>324</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11393,25 +11501,25 @@
         <v>75</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>75</v>
@@ -11460,7 +11568,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11469,10 +11577,10 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>75</v>
@@ -11484,15 +11592,15 @@
         <v>75</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11500,30 +11608,32 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L84" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>75</v>
@@ -11572,19 +11682,19 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
@@ -11596,15 +11706,15 @@
         <v>75</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11612,10 +11722,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>75</v>
@@ -11627,15 +11737,17 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -11660,13 +11772,13 @@
         <v>75</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>75</v>
@@ -11684,19 +11796,19 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
@@ -11708,15 +11820,15 @@
         <v>75</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11727,7 +11839,7 @@
         <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>75</v>
@@ -11739,13 +11851,13 @@
         <v>75</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11796,19 +11908,19 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>75</v>
@@ -11820,15 +11932,15 @@
         <v>75</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11839,7 +11951,7 @@
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -11851,13 +11963,13 @@
         <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11908,19 +12020,19 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>75</v>
@@ -11932,15 +12044,15 @@
         <v>75</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11963,13 +12075,13 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12020,7 +12132,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12029,10 +12141,10 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>75</v>
@@ -12044,15 +12156,15 @@
         <v>75</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12063,7 +12175,7 @@
         <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>75</v>
@@ -12075,13 +12187,13 @@
         <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12132,13 +12244,13 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>75</v>
@@ -12156,15 +12268,15 @@
         <v>75</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>324</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12193,7 +12305,7 @@
         <v>131</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>133</v>
@@ -12234,19 +12346,19 @@
         <v>75</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12255,10 +12367,10 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>75</v>
@@ -12270,19 +12382,19 @@
         <v>75</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>324</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12295,25 +12407,25 @@
         <v>75</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>75</v>
@@ -12362,7 +12474,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -12371,10 +12483,10 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>75</v>
@@ -12386,15 +12498,15 @@
         <v>75</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12402,10 +12514,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>75</v>
@@ -12417,15 +12529,17 @@
         <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>75</v>
@@ -12450,13 +12564,13 @@
         <v>75</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>75</v>
@@ -12474,19 +12588,19 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
@@ -12498,15 +12612,15 @@
         <v>75</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12517,7 +12631,7 @@
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>75</v>
@@ -12529,15 +12643,17 @@
         <v>75</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>75</v>
@@ -12562,13 +12678,13 @@
         <v>75</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>75</v>
@@ -12586,19 +12702,19 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>75</v>
@@ -12610,15 +12726,15 @@
         <v>75</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12629,7 +12745,7 @@
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
@@ -12641,15 +12757,17 @@
         <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>75</v>
@@ -12674,13 +12792,13 @@
         <v>75</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>75</v>
@@ -12698,19 +12816,19 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>75</v>
@@ -12722,15 +12840,15 @@
         <v>75</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12741,7 +12859,7 @@
         <v>76</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>75</v>
@@ -12753,15 +12871,17 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>75</v>
@@ -12786,13 +12906,13 @@
         <v>75</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>75</v>
@@ -12810,19 +12930,19 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>75</v>
@@ -12834,15 +12954,15 @@
         <v>75</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12853,7 +12973,7 @@
         <v>76</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>75</v>
@@ -12865,15 +12985,17 @@
         <v>75</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>75</v>
@@ -12898,13 +13020,13 @@
         <v>75</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>75</v>
@@ -12922,19 +13044,19 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>75</v>
@@ -12946,15 +13068,15 @@
         <v>75</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12965,7 +13087,7 @@
         <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>75</v>
@@ -12977,15 +13099,17 @@
         <v>75</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>75</v>
@@ -13010,13 +13134,13 @@
         <v>75</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>75</v>
@@ -13034,19 +13158,19 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>75</v>
@@ -13058,15 +13182,15 @@
         <v>75</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13077,7 +13201,7 @@
         <v>76</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>75</v>
@@ -13089,15 +13213,17 @@
         <v>75</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>75</v>
@@ -13122,13 +13248,13 @@
         <v>75</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>75</v>
@@ -13146,19 +13272,19 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>75</v>
@@ -13170,15 +13296,15 @@
         <v>75</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13189,7 +13315,7 @@
         <v>76</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>75</v>
@@ -13201,15 +13327,17 @@
         <v>75</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>75</v>
@@ -13234,13 +13362,13 @@
         <v>75</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>75</v>
@@ -13258,19 +13386,19 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>75</v>
@@ -13282,15 +13410,15 @@
         <v>75</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13301,7 +13429,7 @@
         <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>75</v>
@@ -13313,16 +13441,16 @@
         <v>75</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13372,22 +13500,22 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>75</v>
@@ -13396,15 +13524,15 @@
         <v>75</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13415,7 +13543,7 @@
         <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
@@ -13427,16 +13555,16 @@
         <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13486,19 +13614,19 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>75</v>
@@ -13510,15 +13638,15 @@
         <v>75</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13541,16 +13669,16 @@
         <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13600,7 +13728,7 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -13609,10 +13737,10 @@
         <v>77</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>75</v>
@@ -13624,15 +13752,15 @@
         <v>75</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13643,7 +13771,7 @@
         <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>75</v>
@@ -13655,13 +13783,13 @@
         <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13712,13 +13840,13 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>75</v>
@@ -13736,15 +13864,15 @@
         <v>75</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>324</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13773,7 +13901,7 @@
         <v>131</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="N104" t="s" s="2">
         <v>133</v>
@@ -13814,19 +13942,19 @@
         <v>75</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -13835,10 +13963,10 @@
         <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>75</v>
@@ -13850,19 +13978,19 @@
         <v>75</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>324</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13875,25 +14003,25 @@
         <v>75</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>133</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>75</v>
@@ -13942,7 +14070,7 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -13951,10 +14079,10 @@
         <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>75</v>
@@ -13966,15 +14094,15 @@
         <v>75</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13985,7 +14113,7 @@
         <v>76</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>75</v>
@@ -13997,16 +14125,16 @@
         <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14056,19 +14184,19 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>75</v>
@@ -14080,15 +14208,15 @@
         <v>75</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14099,7 +14227,7 @@
         <v>76</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>75</v>
@@ -14111,16 +14239,16 @@
         <v>75</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14170,19 +14298,19 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>96</v>
+        <v>464</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>75</v>
@@ -14194,15 +14322,15 @@
         <v>75</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14225,13 +14353,13 @@
         <v>75</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14282,7 +14410,7 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -14294,10 +14422,10 @@
         <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>75</v>

--- a/output/StructureDefinition-scp-plan.xlsx
+++ b/output/StructureDefinition-scp-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:49:43+02:00</t>
+    <t>2024-04-11T13:58:08+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-scp-plan.xlsx
+++ b/output/StructureDefinition-scp-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:58:08+02:00</t>
+    <t>2024-04-11T14:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-scp-plan.xlsx
+++ b/output/StructureDefinition-scp-plan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="572">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.nl/shared-care-planning/StructureDefinition/scp-plan</t>
+    <t>http://santeonnl.github.io/shared-care-planning/StructureDefinition/scp-plan</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T14:11:32+02:00</t>
+    <t>2024-06-25T19:12:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Nederland</t>
+    <t>Santeon</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Santeon (https://www.santeon.nl)</t>
   </si>
   <si>
     <t>Description</t>
@@ -249,10 +249,18 @@
     <t>*</t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>The definition of a plan for a series of actions, independent of any specific patient or context</t>
   </si>
   <si>
     <t>This resource allows for the definition of various types of plans as a sharable, consumable, and executable artifact. The resource is general enough to support the description of a broad range of clinical artifacts such as clinical decision support rules, order sets and protocols.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}pdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -1894,10 +1902,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2078,17 +2086,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2097,26 +2105,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.45703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.5625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.76171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.65625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="38.08984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="137.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.70703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="143.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2269,13 +2277,13 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2338,7 +2346,7 @@
         <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>47</v>
@@ -2350,15 +2358,15 @@
         <v>75</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2369,7 +2377,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -2378,19 +2386,19 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2440,13 +2448,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -2469,10 +2477,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2483,7 +2491,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -2492,16 +2500,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2552,19 +2560,19 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -2576,15 +2584,15 @@
         <v>75</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2595,28 +2603,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2666,19 +2674,19 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -2690,15 +2698,15 @@
         <v>75</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2709,7 +2717,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -2721,16 +2729,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2756,13 +2764,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -2780,19 +2788,19 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -2804,26 +2812,26 @@
         <v>75</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -2835,16 +2843,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2894,19 +2902,19 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -2918,19 +2926,19 @@
         <v>75</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2949,16 +2957,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3008,7 +3016,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3032,19 +3040,19 @@
         <v>75</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3063,16 +3071,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3110,19 +3118,19 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3131,10 +3139,10 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
@@ -3146,19 +3154,19 @@
         <v>75</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3171,25 +3179,25 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -3226,19 +3234,19 @@
         <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3247,10 +3255,10 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -3262,15 +3270,15 @@
         <v>75</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3281,7 +3289,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -3290,22 +3298,22 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -3354,39 +3362,39 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3406,22 +3414,22 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -3470,7 +3478,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3479,30 +3487,30 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3513,7 +3521,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -3522,19 +3530,19 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3584,39 +3592,39 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3627,7 +3635,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -3636,22 +3644,22 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3700,19 +3708,19 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3724,15 +3732,15 @@
         <v>75</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3743,7 +3751,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3752,19 +3760,19 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3814,22 +3822,22 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3838,15 +3846,15 @@
         <v>75</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3857,7 +3865,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3869,16 +3877,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3928,19 +3936,19 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3952,15 +3960,15 @@
         <v>75</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3971,7 +3979,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3980,19 +3988,19 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4018,13 +4026,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -4042,19 +4050,19 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -4066,15 +4074,15 @@
         <v>75</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4082,31 +4090,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4132,13 +4140,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -4156,39 +4164,39 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4199,7 +4207,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -4208,22 +4216,22 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -4272,39 +4280,39 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4315,7 +4323,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -4327,13 +4335,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4341,7 +4349,7 @@
         <v>75</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>75</v>
@@ -4362,13 +4370,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -4386,22 +4394,22 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -4410,26 +4418,26 @@
         <v>75</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -4438,19 +4446,19 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4500,39 +4508,39 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4543,7 +4551,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4552,22 +4560,22 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4616,39 +4624,39 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4668,19 +4676,19 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4730,7 +4738,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4739,13 +4747,13 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4754,15 +4762,15 @@
         <v>75</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4773,7 +4781,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4782,19 +4790,19 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4844,22 +4852,22 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4868,15 +4876,15 @@
         <v>75</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4896,22 +4904,22 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4960,7 +4968,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4969,13 +4977,13 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4984,15 +4992,15 @@
         <v>75</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5012,19 +5020,19 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5050,13 +5058,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -5074,7 +5082,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5083,13 +5091,13 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -5098,15 +5106,15 @@
         <v>75</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5117,7 +5125,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -5129,16 +5137,16 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5188,39 +5196,39 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5231,7 +5239,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -5243,16 +5251,16 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5302,19 +5310,19 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
@@ -5326,26 +5334,26 @@
         <v>75</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -5357,19 +5365,19 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -5418,39 +5426,39 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5461,7 +5469,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -5473,16 +5481,16 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5532,39 +5540,39 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5575,7 +5583,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5587,19 +5595,19 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5648,39 +5656,39 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5691,7 +5699,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5700,22 +5708,22 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5764,39 +5772,39 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5819,19 +5827,19 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5856,13 +5864,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5880,7 +5888,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5889,13 +5897,13 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5904,15 +5912,15 @@
         <v>75</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5935,13 +5943,13 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5992,7 +6000,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6001,10 +6009,10 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
@@ -6016,15 +6024,15 @@
         <v>75</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6047,13 +6055,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6104,7 +6112,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6113,10 +6121,10 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
@@ -6128,15 +6136,15 @@
         <v>75</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6159,13 +6167,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6216,7 +6224,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6225,10 +6233,10 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -6240,15 +6248,15 @@
         <v>75</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6271,13 +6279,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6328,7 +6336,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6337,10 +6345,10 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -6352,15 +6360,15 @@
         <v>75</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6383,19 +6391,19 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6444,7 +6452,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6453,10 +6461,10 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -6468,15 +6476,15 @@
         <v>75</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6499,16 +6507,16 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6558,7 +6566,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6567,10 +6575,10 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -6582,15 +6590,15 @@
         <v>75</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6613,17 +6621,17 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6672,7 +6680,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6681,10 +6689,10 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6696,15 +6704,15 @@
         <v>75</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6715,7 +6723,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6727,13 +6735,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6784,13 +6792,13 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
@@ -6808,19 +6816,19 @@
         <v>75</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6839,16 +6847,16 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6886,19 +6894,19 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6907,10 +6915,10 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6922,19 +6930,19 @@
         <v>75</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6947,25 +6955,25 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -7014,7 +7022,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7023,10 +7031,10 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -7038,15 +7046,15 @@
         <v>75</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7057,7 +7065,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -7069,16 +7077,16 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7104,13 +7112,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -7128,19 +7136,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -7152,15 +7160,15 @@
         <v>75</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7168,10 +7176,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -7183,16 +7191,16 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7218,13 +7226,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -7242,19 +7250,19 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -7266,15 +7274,15 @@
         <v>75</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7285,7 +7293,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -7297,16 +7305,16 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7332,13 +7340,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7356,19 +7364,19 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
@@ -7380,15 +7388,15 @@
         <v>75</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7399,7 +7407,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -7411,16 +7419,16 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7446,13 +7454,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -7470,19 +7478,19 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
@@ -7494,15 +7502,15 @@
         <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7525,16 +7533,16 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7560,11 +7568,11 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -7582,7 +7590,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7591,10 +7599,10 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
@@ -7606,15 +7614,15 @@
         <v>75</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7637,16 +7645,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7696,7 +7704,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7705,10 +7713,10 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
@@ -7720,15 +7728,15 @@
         <v>75</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7751,13 +7759,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7808,7 +7816,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7817,10 +7825,10 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -7832,15 +7840,15 @@
         <v>75</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7851,7 +7859,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -7863,13 +7871,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7920,13 +7928,13 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
@@ -7944,19 +7952,19 @@
         <v>75</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7975,16 +7983,16 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8022,19 +8030,19 @@
         <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8043,10 +8051,10 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -8058,19 +8066,19 @@
         <v>75</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8083,25 +8091,25 @@
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -8150,7 +8158,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8159,10 +8167,10 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -8174,15 +8182,15 @@
         <v>75</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8193,7 +8201,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -8205,16 +8213,16 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8240,13 +8248,13 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
@@ -8264,19 +8272,19 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
@@ -8288,15 +8296,15 @@
         <v>75</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8307,7 +8315,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -8319,13 +8327,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8376,19 +8384,19 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
@@ -8400,15 +8408,15 @@
         <v>75</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8419,7 +8427,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -8431,16 +8439,16 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8466,13 +8474,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -8490,19 +8498,19 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
@@ -8514,15 +8522,15 @@
         <v>75</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8545,16 +8553,16 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8604,7 +8612,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8613,13 +8621,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -8628,15 +8636,15 @@
         <v>75</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8647,7 +8655,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -8659,13 +8667,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8716,13 +8724,13 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
@@ -8740,19 +8748,19 @@
         <v>75</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8771,16 +8779,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8818,19 +8826,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8839,10 +8847,10 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
@@ -8854,19 +8862,19 @@
         <v>75</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8879,25 +8887,25 @@
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8946,7 +8954,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8955,10 +8963,10 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
@@ -8970,15 +8978,15 @@
         <v>75</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8989,7 +8997,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -9001,16 +9009,16 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9060,19 +9068,19 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
@@ -9084,15 +9092,15 @@
         <v>75</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9103,7 +9111,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -9115,16 +9123,16 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9174,22 +9182,22 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -9198,15 +9206,15 @@
         <v>75</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9217,7 +9225,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -9229,16 +9237,16 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9288,22 +9296,22 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -9312,15 +9320,15 @@
         <v>75</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9331,7 +9339,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -9343,16 +9351,16 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9402,22 +9410,22 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -9426,15 +9434,15 @@
         <v>75</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9445,7 +9453,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
@@ -9457,16 +9465,16 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9492,13 +9500,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -9516,19 +9524,19 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
@@ -9540,15 +9548,15 @@
         <v>75</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9571,16 +9579,16 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9630,7 +9638,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9639,10 +9647,10 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
@@ -9654,15 +9662,15 @@
         <v>75</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9685,16 +9693,16 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9744,7 +9752,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9753,10 +9761,10 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
@@ -9768,15 +9776,15 @@
         <v>75</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9799,16 +9807,16 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9858,7 +9866,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9867,10 +9875,10 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
@@ -9882,15 +9890,15 @@
         <v>75</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9913,16 +9921,16 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9972,7 +9980,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9981,10 +9989,10 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
@@ -9996,15 +10004,15 @@
         <v>75</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10015,7 +10023,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -10027,85 +10035,85 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M70" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q70" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q70" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
@@ -10114,15 +10122,15 @@
         <v>75</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10145,16 +10153,16 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10204,7 +10212,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10213,10 +10221,10 @@
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
@@ -10228,15 +10236,15 @@
         <v>75</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10259,16 +10267,16 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10318,7 +10326,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10327,10 +10335,10 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
@@ -10342,15 +10350,15 @@
         <v>75</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10361,7 +10369,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -10373,13 +10381,13 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10430,13 +10438,13 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
@@ -10454,19 +10462,19 @@
         <v>75</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10485,16 +10493,16 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10532,19 +10540,19 @@
         <v>75</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10553,10 +10561,10 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
@@ -10568,19 +10576,19 @@
         <v>75</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10593,25 +10601,25 @@
         <v>75</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>75</v>
@@ -10660,7 +10668,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10669,10 +10677,10 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
@@ -10684,15 +10692,15 @@
         <v>75</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10700,10 +10708,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -10715,16 +10723,16 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10750,13 +10758,13 @@
         <v>75</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>75</v>
@@ -10774,19 +10782,19 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
@@ -10798,15 +10806,15 @@
         <v>75</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10817,7 +10825,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
@@ -10829,16 +10837,16 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10888,19 +10896,19 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
@@ -10912,15 +10920,15 @@
         <v>75</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10943,13 +10951,13 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11000,7 +11008,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11009,10 +11017,10 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
@@ -11024,15 +11032,15 @@
         <v>75</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11055,13 +11063,13 @@
         <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11112,7 +11120,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11121,10 +11129,10 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
@@ -11136,15 +11144,15 @@
         <v>75</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11167,16 +11175,16 @@
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11226,7 +11234,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11235,10 +11243,10 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
@@ -11250,15 +11258,15 @@
         <v>75</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11269,7 +11277,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -11281,13 +11289,13 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11338,13 +11346,13 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>75</v>
@@ -11362,19 +11370,19 @@
         <v>75</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11393,16 +11401,16 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11440,19 +11448,19 @@
         <v>75</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11461,10 +11469,10 @@
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>75</v>
@@ -11476,19 +11484,19 @@
         <v>75</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11501,25 +11509,25 @@
         <v>75</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>75</v>
@@ -11568,7 +11576,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11577,10 +11585,10 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>75</v>
@@ -11592,15 +11600,15 @@
         <v>75</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11608,10 +11616,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>75</v>
@@ -11623,16 +11631,16 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11682,19 +11690,19 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
@@ -11706,15 +11714,15 @@
         <v>75</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11722,10 +11730,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>75</v>
@@ -11737,16 +11745,16 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11772,13 +11780,13 @@
         <v>75</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>75</v>
@@ -11796,19 +11804,19 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
@@ -11820,15 +11828,15 @@
         <v>75</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11839,7 +11847,7 @@
         <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>75</v>
@@ -11851,13 +11859,13 @@
         <v>75</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11908,19 +11916,19 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>75</v>
@@ -11932,15 +11940,15 @@
         <v>75</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11951,7 +11959,7 @@
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -11963,13 +11971,13 @@
         <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12020,19 +12028,19 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>75</v>
@@ -12044,15 +12052,15 @@
         <v>75</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12075,13 +12083,13 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12132,7 +12140,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12141,10 +12149,10 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>75</v>
@@ -12156,15 +12164,15 @@
         <v>75</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12175,7 +12183,7 @@
         <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>75</v>
@@ -12187,13 +12195,13 @@
         <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12244,13 +12252,13 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>75</v>
@@ -12268,19 +12276,19 @@
         <v>75</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12299,16 +12307,16 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12346,19 +12354,19 @@
         <v>75</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12367,10 +12375,10 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>75</v>
@@ -12382,19 +12390,19 @@
         <v>75</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12407,25 +12415,25 @@
         <v>75</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>75</v>
@@ -12474,7 +12482,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -12483,10 +12491,10 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>75</v>
@@ -12498,15 +12506,15 @@
         <v>75</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12514,10 +12522,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>75</v>
@@ -12529,16 +12537,16 @@
         <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12564,13 +12572,13 @@
         <v>75</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>75</v>
@@ -12588,19 +12596,19 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
@@ -12612,15 +12620,15 @@
         <v>75</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12631,7 +12639,7 @@
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>75</v>
@@ -12643,16 +12651,16 @@
         <v>75</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12678,13 +12686,13 @@
         <v>75</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>75</v>
@@ -12702,19 +12710,19 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>75</v>
@@ -12726,15 +12734,15 @@
         <v>75</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12745,7 +12753,7 @@
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
@@ -12757,16 +12765,16 @@
         <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12792,13 +12800,13 @@
         <v>75</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>75</v>
@@ -12816,19 +12824,19 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>75</v>
@@ -12840,15 +12848,15 @@
         <v>75</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12859,7 +12867,7 @@
         <v>76</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>75</v>
@@ -12871,16 +12879,16 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12906,13 +12914,13 @@
         <v>75</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>75</v>
@@ -12930,19 +12938,19 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>75</v>
@@ -12954,15 +12962,15 @@
         <v>75</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12973,7 +12981,7 @@
         <v>76</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>75</v>
@@ -12985,16 +12993,16 @@
         <v>75</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13020,13 +13028,13 @@
         <v>75</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>75</v>
@@ -13044,19 +13052,19 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>75</v>
@@ -13068,15 +13076,15 @@
         <v>75</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13087,7 +13095,7 @@
         <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>75</v>
@@ -13099,16 +13107,16 @@
         <v>75</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13134,13 +13142,13 @@
         <v>75</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>75</v>
@@ -13158,19 +13166,19 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>75</v>
@@ -13182,15 +13190,15 @@
         <v>75</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13201,7 +13209,7 @@
         <v>76</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>75</v>
@@ -13213,16 +13221,16 @@
         <v>75</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13248,13 +13256,13 @@
         <v>75</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>75</v>
@@ -13272,19 +13280,19 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>75</v>
@@ -13296,15 +13304,15 @@
         <v>75</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13315,7 +13323,7 @@
         <v>76</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>75</v>
@@ -13327,16 +13335,16 @@
         <v>75</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13362,13 +13370,13 @@
         <v>75</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>75</v>
@@ -13386,19 +13394,19 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>75</v>
@@ -13410,15 +13418,15 @@
         <v>75</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13429,7 +13437,7 @@
         <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>75</v>
@@ -13441,16 +13449,16 @@
         <v>75</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13500,22 +13508,22 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>75</v>
@@ -13524,15 +13532,15 @@
         <v>75</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13543,7 +13551,7 @@
         <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
@@ -13555,16 +13563,16 @@
         <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13614,19 +13622,19 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>75</v>
@@ -13638,15 +13646,15 @@
         <v>75</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13669,16 +13677,16 @@
         <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13728,7 +13736,7 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -13737,10 +13745,10 @@
         <v>77</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>75</v>
@@ -13752,15 +13760,15 @@
         <v>75</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13771,7 +13779,7 @@
         <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>75</v>
@@ -13783,13 +13791,13 @@
         <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13840,13 +13848,13 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>75</v>
@@ -13864,19 +13872,19 @@
         <v>75</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13895,16 +13903,16 @@
         <v>75</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13942,19 +13950,19 @@
         <v>75</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -13963,10 +13971,10 @@
         <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>75</v>
@@ -13978,19 +13986,19 @@
         <v>75</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14003,25 +14011,25 @@
         <v>75</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>75</v>
@@ -14070,7 +14078,7 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -14079,10 +14087,10 @@
         <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>75</v>
@@ -14094,15 +14102,15 @@
         <v>75</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14113,7 +14121,7 @@
         <v>76</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>75</v>
@@ -14125,16 +14133,16 @@
         <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14184,19 +14192,19 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>75</v>
@@ -14208,15 +14216,15 @@
         <v>75</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14227,7 +14235,7 @@
         <v>76</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>75</v>
@@ -14239,16 +14247,16 @@
         <v>75</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14298,19 +14306,19 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>75</v>
@@ -14322,15 +14330,15 @@
         <v>75</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14353,13 +14361,13 @@
         <v>75</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14410,7 +14418,7 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -14425,7 +14433,7 @@
         <v>75</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>75</v>

--- a/output/StructureDefinition-scp-plan.xlsx
+++ b/output/StructureDefinition-scp-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T19:12:23+02:00</t>
+    <t>2024-06-25T19:40:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-scp-plan.xlsx
+++ b/output/StructureDefinition-scp-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T19:40:44+02:00</t>
+    <t>2024-06-26T00:37:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-scp-plan.xlsx
+++ b/output/StructureDefinition-scp-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T03:07:22+02:00</t>
+    <t>2024-07-01T05:14:46+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-scp-plan.xlsx
+++ b/output/StructureDefinition-scp-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T05:14:46+02:00</t>
+    <t>2024-07-01T12:11:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-scp-plan.xlsx
+++ b/output/StructureDefinition-scp-plan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:11:43+02:00</t>
+    <t>2024-07-02T15:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}pdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}pdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -310,17 +310,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>PlanDefinition.implicitRules</t>
   </si>
   <si>
@@ -340,9 +333,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PlanDefinition.language</t>
   </si>
   <si>
@@ -420,6 +410,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>PlanDefinition.extension</t>
   </si>
   <si>
@@ -438,16 +431,6 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -521,9 +504,6 @@
     <t>no-gen-base</t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
     <t>PlanDefinition.version</t>
   </si>
   <si>
@@ -561,8 +541,8 @@
     <t>Support human navigation and code generation.</t>
   </si>
   <si>
-    <t>ele-1
-inv-0</t>
+    <t xml:space="preserve">inv-0
+</t>
   </si>
   <si>
     <t>PlanDefinition.title</t>
@@ -587,9 +567,6 @@
   </si>
   <si>
     <t>An explanatory or alternate title for the plan definition giving additional information about its content.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>PlanDefinition.type</t>
@@ -605,9 +582,6 @@
     <t>A high-level category for the plan definition that distinguishes the kinds of systems that would be interested in the plan definition.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -615,9 +589,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/plan-definition-type</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>PlanDefinition.status</t>
@@ -862,9 +833,6 @@
     <t>A copyright statement relating to the plan definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the plan definition.</t>
   </si>
   <si>
-    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
-  </si>
-  <si>
     <t>Consumers must be able to determine any legal restrictions on the use of the plan definition and/or its content.</t>
   </si>
   <si>
@@ -927,14 +895,7 @@
     <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the plan definition are or are expected to be used instead.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>Definition.effectivePeriod</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
   </si>
   <si>
     <t>PlanDefinition.topic</t>
@@ -1035,9 +996,6 @@
     <t>A reference to a Library resource containing any formal logic used by the plan definition.</t>
   </si>
   <si>
-    <t>see [Canonical References](http://hl7.org/fhir/R4/references.html#canonical)</t>
-  </si>
-  <si>
     <t>PlanDefinition.goal</t>
   </si>
   <si>
@@ -1066,6 +1024,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>PlanDefinition.goal.extension</t>
   </si>
   <si>
@@ -1176,9 +1137,6 @@
     <t>Didactic or other informational resources associated with the goal that provide further supporting information about the goal. Information resources can include inline text commentary and links to web resources.</t>
   </si>
   <si>
-    <t>Each related artifact is either an attachment, or a reference to another knowledge resource, but not both.</t>
-  </si>
-  <si>
     <t>PlanDefinition.goal.target</t>
   </si>
   <si>
@@ -1238,22 +1196,6 @@
     <t>Indicates the timeframe after the start of the goal in which the goal should be met.</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>Appropriate units for Duration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/duration-units</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}drt-1:There SHALL be a code if there is a value and it SHALL be an expression of time.  If system is present, it SHALL be UCUM. {code.exists() implies ((system = %ucum) and value.exists())}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt; depending on the values</t>
-  </si>
-  <si>
     <t>PlanDefinition.action</t>
   </si>
   <si>
@@ -1366,9 +1308,6 @@
   </si>
   <si>
     <t>Identifies goals that this action supports. The reference must be to a goal element defined within this plan definition.</t>
-  </si>
-  <si>
-    <t>RFC 4122</t>
   </si>
   <si>
     <t>PlanDefinition.action.subject[x]</t>
@@ -1400,13 +1339,6 @@
     <t>A description of when the action should be triggered.</t>
   </si>
   <si>
-    <t>If an event is a named-event, it means the event is completely pre-coordinated, and no other information can be specified for the event. If the event is one of the data- events, the data and condition elements specify the triggering criteria. The data element specifies the structured component, and the condition element provides additional optional refinement of that structured component. If the event is periodic, the timing element defines when the event is triggered. For both data- and periodic events, a name can be provided as a shorthand for the formal semantics provided by the other elements.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-trd-3:A named event requires a name, a periodic event requires timing, and a data event requires data {(type = 'named-event' implies name.exists()) and (type = 'periodic' implies timing.exists()) and (type.startsWith('data-') implies data.exists())}trd-2:A condition only if there is a data requirement {condition.exists() implies data.exists()}trd-1:Either timing, or a data requirement, but not both {data.empty() or timing.empty()}</t>
-  </si>
-  <si>
     <t>PlanDefinition.action.condition</t>
   </si>
   <si>
@@ -1460,10 +1392,6 @@
   </si>
   <si>
     <t>The expression may be inlined or may be a reference to a named expression within a logic library referenced by the library element.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-exp-1:An expression or a reference must be provided {expression.exists() or reference.exists()}</t>
   </si>
   <si>
     <t>PlanDefinition.action.input</t>
@@ -2125,7 +2053,7 @@
     <col min="26" max="26" width="56.19140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="44.328125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2135,7 +2063,7 @@
     <col min="37" max="37" width="39.70703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="90.48828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2580,11 +2508,11 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
@@ -2595,15 +2523,15 @@
         <v>20</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2626,16 +2554,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2685,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2694,11 +2622,11 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
@@ -2709,15 +2637,15 @@
         <v>20</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2740,16 +2668,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2775,31 +2703,31 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2808,11 +2736,11 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
@@ -2823,19 +2751,19 @@
         <v>20</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2854,16 +2782,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2913,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2922,11 +2850,11 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
@@ -2937,19 +2865,19 @@
         <v>20</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2968,16 +2896,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3027,7 +2955,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -3051,19 +2979,19 @@
         <v>20</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3082,16 +3010,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3129,19 +3057,19 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -3150,10 +3078,10 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -3165,19 +3093,19 @@
         <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3196,19 +3124,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -3245,19 +3173,19 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3266,10 +3194,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -3281,15 +3209,15 @@
         <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3312,19 +3240,19 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3373,7 +3301,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3382,30 +3310,30 @@
         <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3428,19 +3356,19 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3489,7 +3417,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3498,30 +3426,30 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3544,16 +3472,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3603,7 +3531,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3612,30 +3540,30 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3658,19 +3586,19 @@
         <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3719,7 +3647,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3728,10 +3656,10 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
@@ -3743,15 +3671,15 @@
         <v>20</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3774,16 +3702,16 @@
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3833,7 +3761,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3842,13 +3770,13 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -3857,15 +3785,15 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3888,17 +3816,15 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3947,7 +3873,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3956,11 +3882,11 @@
         <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3971,15 +3897,15 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4002,17 +3928,15 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -4037,13 +3961,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -4061,7 +3985,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4070,11 +3994,11 @@
         <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
       </c>
@@ -4085,15 +4009,15 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4116,16 +4040,16 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4151,13 +4075,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4175,7 +4099,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>85</v>
@@ -4184,30 +4108,30 @@
         <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4230,19 +4154,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4291,7 +4215,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4300,30 +4224,30 @@
         <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4346,13 +4270,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4360,7 +4284,7 @@
         <v>20</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>20</v>
@@ -4381,13 +4305,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4405,7 +4329,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4414,13 +4338,13 @@
         <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -4429,19 +4353,19 @@
         <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4460,16 +4384,16 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4519,7 +4443,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4528,30 +4452,30 @@
         <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4574,19 +4498,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4635,7 +4559,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4644,30 +4568,30 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4690,16 +4614,16 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4749,7 +4673,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4758,13 +4682,13 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -4773,15 +4697,15 @@
         <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4804,16 +4728,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4863,7 +4787,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4872,13 +4796,13 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -4887,15 +4811,15 @@
         <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4918,19 +4842,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4979,7 +4903,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4988,13 +4912,13 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -5003,15 +4927,15 @@
         <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5034,16 +4958,16 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5069,13 +4993,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -5093,7 +5017,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5102,13 +5026,13 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -5117,15 +5041,15 @@
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5148,16 +5072,16 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5207,7 +5131,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5216,30 +5140,30 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5262,17 +5186,15 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5321,7 +5243,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5330,11 +5252,11 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5345,19 +5267,19 @@
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5376,19 +5298,17 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5437,7 +5357,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5446,30 +5366,30 @@
         <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5492,16 +5412,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5551,7 +5471,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5560,30 +5480,30 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5606,19 +5526,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5667,7 +5587,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5676,30 +5596,30 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5722,19 +5642,19 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5783,7 +5703,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5792,30 +5712,30 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5838,19 +5758,17 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5875,13 +5793,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5899,7 +5817,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5908,13 +5826,13 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
@@ -5923,15 +5841,15 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5954,13 +5872,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6011,7 +5929,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6020,11 +5938,11 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
@@ -6035,15 +5953,15 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6066,13 +5984,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6123,7 +6041,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6132,11 +6050,11 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6147,15 +6065,15 @@
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6178,13 +6096,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6235,7 +6153,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6244,11 +6162,11 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6259,15 +6177,15 @@
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6290,13 +6208,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6347,7 +6265,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6356,11 +6274,11 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6371,15 +6289,15 @@
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6402,19 +6320,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6463,7 +6381,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6472,11 +6390,11 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6487,15 +6405,15 @@
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6518,17 +6436,15 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6577,7 +6493,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6586,11 +6502,11 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6601,15 +6517,15 @@
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6632,17 +6548,17 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6691,7 +6607,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6700,11 +6616,11 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6715,15 +6631,15 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6746,13 +6662,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6803,7 +6719,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6827,19 +6743,19 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6858,16 +6774,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6905,19 +6821,19 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6926,10 +6842,10 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -6941,19 +6857,19 @@
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6972,19 +6888,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7033,7 +6949,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7042,10 +6958,10 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -7057,15 +6973,15 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7088,17 +7004,15 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7123,13 +7037,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7147,7 +7061,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7156,11 +7070,11 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7171,15 +7085,15 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7202,16 +7116,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7237,13 +7151,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7261,7 +7175,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>85</v>
@@ -7270,11 +7184,11 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7285,15 +7199,15 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7316,17 +7230,15 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7351,13 +7263,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7375,7 +7287,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7384,11 +7296,11 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7399,15 +7311,15 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7430,17 +7342,15 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7465,13 +7375,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7489,7 +7399,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7498,11 +7408,11 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7513,15 +7423,15 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7544,17 +7454,15 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7579,11 +7487,11 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7601,7 +7509,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7610,11 +7518,11 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7625,15 +7533,15 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7656,17 +7564,15 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7715,7 +7621,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7724,11 +7630,11 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7739,15 +7645,15 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7770,13 +7676,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7827,7 +7733,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7836,11 +7742,11 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7851,15 +7757,15 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7882,13 +7788,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7939,7 +7845,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7963,19 +7869,19 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7994,16 +7900,16 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8041,19 +7947,19 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8062,10 +7968,10 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -8077,19 +7983,19 @@
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8108,19 +8014,19 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8169,7 +8075,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8178,10 +8084,10 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8193,15 +8099,15 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8224,17 +8130,15 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8259,13 +8163,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8283,7 +8187,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8292,11 +8196,11 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8307,15 +8211,15 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8338,13 +8242,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8395,7 +8299,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8404,11 +8308,11 @@
         <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8419,15 +8323,15 @@
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8450,17 +8354,15 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8485,13 +8387,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8509,7 +8411,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8518,11 +8420,11 @@
         <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8533,15 +8435,15 @@
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>398</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8564,16 +8466,16 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8623,7 +8525,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8632,13 +8534,13 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
@@ -8647,15 +8549,15 @@
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8678,13 +8580,13 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8735,7 +8637,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8759,19 +8661,19 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8790,16 +8692,16 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8837,19 +8739,19 @@
         <v>20</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8858,10 +8760,10 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -8873,19 +8775,19 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8904,19 +8806,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8965,7 +8867,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8974,10 +8876,10 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -8989,15 +8891,15 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9020,17 +8922,15 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9079,7 +8979,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9088,11 +8988,11 @@
         <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
       </c>
@@ -9103,15 +9003,15 @@
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9134,17 +9034,15 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9193,7 +9091,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9202,13 +9100,13 @@
         <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>20</v>
@@ -9217,15 +9115,15 @@
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9248,17 +9146,15 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9307,7 +9203,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9316,13 +9212,13 @@
         <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK63" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>20</v>
@@ -9331,15 +9227,15 @@
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9362,17 +9258,15 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9421,7 +9315,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9430,13 +9324,13 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK64" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>20</v>
@@ -9445,15 +9339,15 @@
         <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9476,17 +9370,15 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9511,13 +9403,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9535,7 +9427,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9544,11 +9436,11 @@
         <v>85</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK65" t="s" s="2">
         <v>20</v>
       </c>
@@ -9559,15 +9451,15 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9590,17 +9482,15 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -9649,7 +9539,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9658,11 +9548,11 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
       </c>
@@ -9673,15 +9563,15 @@
         <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9704,16 +9594,16 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9763,7 +9653,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9772,11 +9662,11 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
       </c>
@@ -9787,15 +9677,15 @@
         <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9818,17 +9708,15 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -9877,7 +9765,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9886,11 +9774,11 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
       </c>
@@ -9901,15 +9789,15 @@
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9935,14 +9823,12 @@
         <v>87</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -9991,7 +9877,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10000,11 +9886,11 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>20</v>
       </c>
@@ -10015,15 +9901,15 @@
         <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10046,25 +9932,25 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q70" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>20</v>
@@ -10085,13 +9971,13 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -10109,7 +9995,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10118,13 +10004,13 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK70" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>20</v>
@@ -10133,15 +10019,15 @@
         <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10164,17 +10050,15 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10223,7 +10107,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10232,11 +10116,11 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ71" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AK71" t="s" s="2">
         <v>20</v>
       </c>
@@ -10247,15 +10131,15 @@
         <v>20</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10278,16 +10162,16 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10337,7 +10221,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10346,11 +10230,11 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ72" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK72" t="s" s="2">
         <v>20</v>
       </c>
@@ -10361,15 +10245,15 @@
         <v>20</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10392,13 +10276,13 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10449,7 +10333,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10473,19 +10357,19 @@
         <v>20</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10504,16 +10388,16 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10551,19 +10435,19 @@
         <v>20</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10572,10 +10456,10 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>20</v>
@@ -10587,19 +10471,19 @@
         <v>20</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10618,19 +10502,19 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -10679,7 +10563,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10688,10 +10572,10 @@
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>20</v>
@@ -10703,15 +10587,15 @@
         <v>20</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10734,16 +10618,16 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10769,13 +10653,13 @@
         <v>20</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -10793,7 +10677,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>85</v>
@@ -10802,11 +10686,11 @@
         <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK76" t="s" s="2">
         <v>20</v>
       </c>
@@ -10817,15 +10701,15 @@
         <v>20</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10848,16 +10732,16 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10907,7 +10791,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10916,11 +10800,11 @@
         <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="AK77" t="s" s="2">
         <v>20</v>
       </c>
@@ -10931,15 +10815,15 @@
         <v>20</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10962,13 +10846,13 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11019,7 +10903,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11028,11 +10912,11 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK78" t="s" s="2">
         <v>20</v>
       </c>
@@ -11043,15 +10927,15 @@
         <v>20</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11074,13 +10958,13 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11131,7 +11015,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11140,11 +11024,11 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>20</v>
       </c>
@@ -11155,15 +11039,15 @@
         <v>20</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11186,16 +11070,16 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11245,7 +11129,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11254,11 +11138,11 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ80" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK80" t="s" s="2">
         <v>20</v>
       </c>
@@ -11269,15 +11153,15 @@
         <v>20</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11300,13 +11184,13 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11357,7 +11241,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11381,19 +11265,19 @@
         <v>20</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11412,16 +11296,16 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11459,19 +11343,19 @@
         <v>20</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11480,10 +11364,10 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>20</v>
@@ -11495,19 +11379,19 @@
         <v>20</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11526,19 +11410,19 @@
         <v>86</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -11587,7 +11471,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11596,10 +11480,10 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>20</v>
@@ -11611,15 +11495,15 @@
         <v>20</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11645,14 +11529,12 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -11701,7 +11583,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>85</v>
@@ -11710,11 +11592,11 @@
         <v>85</v>
       </c>
       <c r="AI84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ84" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK84" t="s" s="2">
         <v>20</v>
       </c>
@@ -11725,15 +11607,15 @@
         <v>20</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11756,17 +11638,15 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -11791,13 +11671,13 @@
         <v>20</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>20</v>
@@ -11815,7 +11695,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>85</v>
@@ -11824,11 +11704,11 @@
         <v>85</v>
       </c>
       <c r="AI85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ85" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK85" t="s" s="2">
         <v>20</v>
       </c>
@@ -11839,15 +11719,15 @@
         <v>20</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11870,13 +11750,13 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11927,7 +11807,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -11936,11 +11816,11 @@
         <v>85</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ86" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK86" t="s" s="2">
         <v>20</v>
       </c>
@@ -11951,15 +11831,15 @@
         <v>20</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11982,13 +11862,13 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12039,7 +11919,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12048,11 +11928,11 @@
         <v>85</v>
       </c>
       <c r="AI87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ87" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK87" t="s" s="2">
         <v>20</v>
       </c>
@@ -12063,15 +11943,15 @@
         <v>20</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12094,13 +11974,13 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12151,7 +12031,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12160,11 +12040,11 @@
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ88" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK88" t="s" s="2">
         <v>20</v>
       </c>
@@ -12175,15 +12055,15 @@
         <v>20</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12206,13 +12086,13 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12263,7 +12143,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12287,19 +12167,19 @@
         <v>20</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12318,16 +12198,16 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12365,19 +12245,19 @@
         <v>20</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12386,10 +12266,10 @@
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>20</v>
@@ -12401,19 +12281,19 @@
         <v>20</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12432,19 +12312,19 @@
         <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>20</v>
@@ -12493,7 +12373,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12502,10 +12382,10 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>20</v>
@@ -12517,15 +12397,15 @@
         <v>20</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12548,17 +12428,15 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>20</v>
@@ -12583,13 +12461,13 @@
         <v>20</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>20</v>
@@ -12607,7 +12485,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>85</v>
@@ -12616,11 +12494,11 @@
         <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ92" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK92" t="s" s="2">
         <v>20</v>
       </c>
@@ -12631,15 +12509,15 @@
         <v>20</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12662,17 +12540,15 @@
         <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -12697,13 +12573,13 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -12721,7 +12597,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -12730,11 +12606,11 @@
         <v>85</v>
       </c>
       <c r="AI93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ93" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK93" t="s" s="2">
         <v>20</v>
       </c>
@@ -12745,15 +12621,15 @@
         <v>20</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12776,17 +12652,15 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -12811,13 +12685,13 @@
         <v>20</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -12835,7 +12709,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -12844,11 +12718,11 @@
         <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ94" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK94" t="s" s="2">
         <v>20</v>
       </c>
@@ -12859,15 +12733,15 @@
         <v>20</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12890,17 +12764,15 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -12925,13 +12797,13 @@
         <v>20</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>20</v>
@@ -12949,7 +12821,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -12958,11 +12830,11 @@
         <v>85</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ95" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK95" t="s" s="2">
         <v>20</v>
       </c>
@@ -12973,15 +12845,15 @@
         <v>20</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13004,17 +12876,15 @@
         <v>20</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13039,13 +12909,13 @@
         <v>20</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>20</v>
@@ -13063,7 +12933,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13072,11 +12942,11 @@
         <v>85</v>
       </c>
       <c r="AI96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ96" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK96" t="s" s="2">
         <v>20</v>
       </c>
@@ -13087,15 +12957,15 @@
         <v>20</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13118,17 +12988,15 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -13153,13 +13021,13 @@
         <v>20</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>20</v>
@@ -13177,7 +13045,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -13186,11 +13054,11 @@
         <v>85</v>
       </c>
       <c r="AI97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ97" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK97" t="s" s="2">
         <v>20</v>
       </c>
@@ -13201,15 +13069,15 @@
         <v>20</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13232,17 +13100,15 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>20</v>
@@ -13267,13 +13133,13 @@
         <v>20</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>20</v>
@@ -13291,7 +13157,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13300,11 +13166,11 @@
         <v>85</v>
       </c>
       <c r="AI98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ98" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK98" t="s" s="2">
         <v>20</v>
       </c>
@@ -13315,15 +13181,15 @@
         <v>20</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13346,17 +13212,15 @@
         <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>20</v>
@@ -13381,13 +13245,13 @@
         <v>20</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>20</v>
@@ -13405,7 +13269,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -13414,11 +13278,11 @@
         <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ99" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK99" t="s" s="2">
         <v>20</v>
       </c>
@@ -13429,15 +13293,15 @@
         <v>20</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13460,16 +13324,16 @@
         <v>20</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13519,7 +13383,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -13528,13 +13392,13 @@
         <v>85</v>
       </c>
       <c r="AI100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ100" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK100" t="s" s="2">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>20</v>
@@ -13543,15 +13407,15 @@
         <v>20</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13574,16 +13438,16 @@
         <v>20</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13633,7 +13497,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13642,11 +13506,11 @@
         <v>85</v>
       </c>
       <c r="AI101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ101" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK101" t="s" s="2">
         <v>20</v>
       </c>
@@ -13657,15 +13521,15 @@
         <v>20</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13688,16 +13552,16 @@
         <v>20</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13747,7 +13611,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -13756,11 +13620,11 @@
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ102" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK102" t="s" s="2">
         <v>20</v>
       </c>
@@ -13771,15 +13635,15 @@
         <v>20</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13802,13 +13666,13 @@
         <v>20</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13859,7 +13723,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -13883,19 +13747,19 @@
         <v>20</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13914,16 +13778,16 @@
         <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13961,19 +13825,19 @@
         <v>20</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -13982,10 +13846,10 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>20</v>
@@ -13997,19 +13861,19 @@
         <v>20</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14028,19 +13892,19 @@
         <v>86</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>20</v>
@@ -14089,7 +13953,7 @@
         <v>20</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14098,10 +13962,10 @@
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>20</v>
@@ -14113,15 +13977,15 @@
         <v>20</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14144,16 +14008,16 @@
         <v>20</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14203,7 +14067,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14212,11 +14076,11 @@
         <v>85</v>
       </c>
       <c r="AI106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ106" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK106" t="s" s="2">
         <v>20</v>
       </c>
@@ -14227,15 +14091,15 @@
         <v>20</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14258,16 +14122,16 @@
         <v>20</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14317,7 +14181,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14326,11 +14190,11 @@
         <v>85</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ107" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="AK107" t="s" s="2">
         <v>20</v>
       </c>
@@ -14341,15 +14205,15 @@
         <v>20</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14375,10 +14239,10 @@
         <v>79</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14429,7 +14293,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14441,10 +14305,10 @@
         <v>20</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>20</v>
